--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -506,10 +506,10 @@
   <dimension ref="E4:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="37.36328125" customWidth="1" min="6" max="6"/>
     <col width="16.7265625" customWidth="1" min="7" max="7"/>
@@ -554,10 +554,10 @@
         </is>
       </c>
       <c r="G5" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>0</v>
@@ -573,13 +573,13 @@
         </is>
       </c>
       <c r="G6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="G7" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>0</v>
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>0</v>
